--- a/biology/Zoologie/Goniodiscaster/Goniodiscaster.xlsx
+++ b/biology/Zoologie/Goniodiscaster/Goniodiscaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Goniodiscaster est un genre d'étoiles de mer de la famille des Goniasteridae (mais classée jusqu'en 2018 parmi les Oreasteridae).
 </t>
@@ -511,11 +523,13 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des étoiles trapues et pentagonales. Les bras sont courts, très arrondis à la pointe. La peau est fine et peu visible, contrairement aux plaques abactinales, convexes. Les plaques secondaires ont presque toutes la forme d'anneaux calcaires, associées à des pédicellaires alvéolaires. Les granules des aires papulaires sont indifférenciés de ceux des autres plaques[1].
-L'espèce Styphlaster notabilis ressemble beaucoup à une Goniodiscaster, mais les granules de ses plaques papulaires diffèrent de ceux des plaques convexes[1]. Les genres proches Anthenea et Gymnanthenea peuvent également être sources de confusion, mais les Goniodiscaster n'ont pas de gros pédicellaires bivalves sur la face inférieure[2].
-Ce genre a longtemps été placé dans la famille des Oreasteridae (il ressemble beaucoup à Anthenea, par exemple), mais a été réattribué en 2018[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des étoiles trapues et pentagonales. Les bras sont courts, très arrondis à la pointe. La peau est fine et peu visible, contrairement aux plaques abactinales, convexes. Les plaques secondaires ont presque toutes la forme d'anneaux calcaires, associées à des pédicellaires alvéolaires. Les granules des aires papulaires sont indifférenciés de ceux des autres plaques.
+L'espèce Styphlaster notabilis ressemble beaucoup à une Goniodiscaster, mais les granules de ses plaques papulaires diffèrent de ceux des plaques convexes. Les genres proches Anthenea et Gymnanthenea peuvent également être sources de confusion, mais les Goniodiscaster n'ont pas de gros pédicellaires bivalves sur la face inférieure.
+Ce genre a longtemps été placé dans la famille des Oreasteridae (il ressemble beaucoup à Anthenea, par exemple), mais a été réattribué en 2018.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (1 octobre 2014)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (1 octobre 2014) :
 Goniodiscaster acanthodes H.L. Clark, 1938 -- Nord de l'Australie
 Goniodiscaster aegis Mah, 2018 -- Somalie
 Goniodiscaster australiae Tortonese, 1937 -- Nord de l'Australie
